--- a/Src/Results/Request_distribution_instance_0_demand_low.xlsx
+++ b/Src/Results/Request_distribution_instance_0_demand_low.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -964,13 +964,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1553,13 +1553,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1610,13 +1610,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1667,10 +1667,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1838,13 +1838,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1895,13 +1895,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2107,10 +2107,10 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2199,13 +2199,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2218,10 +2218,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2408,13 +2408,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2484,13 +2484,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2769,13 +2769,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2826,13 +2826,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2978,10 +2978,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3073,13 +3073,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3396,13 +3396,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3434,13 +3434,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3491,13 +3491,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3548,13 +3548,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3586,13 +3586,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3624,13 +3624,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3700,13 +3700,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3738,13 +3738,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -3795,10 +3795,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -3928,13 +3928,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3947,13 +3947,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -3985,13 +3985,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4194,13 +4194,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -4289,13 +4289,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -4308,13 +4308,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -4327,13 +4327,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -4365,13 +4365,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4384,13 +4384,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4460,13 +4460,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4517,13 +4517,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4593,13 +4593,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4612,13 +4612,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -4669,13 +4669,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -4802,13 +4802,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -4821,13 +4821,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -4840,13 +4840,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -4897,10 +4897,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -4973,13 +4973,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -5011,13 +5011,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5109,10 +5109,10 @@
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -5182,13 +5182,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5201,13 +5201,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -5505,13 +5505,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -5695,13 +5695,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -5714,13 +5714,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D278" t="n">
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -5752,13 +5752,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D280" t="n">
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -5828,13 +5828,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284" t="n">
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -5866,13 +5866,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D286" t="n">
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -5923,13 +5923,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289" t="n">
         <v>0</v>
       </c>
       <c r="E289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -5980,13 +5980,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -5999,13 +5999,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293" t="n">
         <v>0</v>
       </c>
       <c r="E293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -6170,13 +6170,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D302" t="n">
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -6246,13 +6246,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D307" t="n">
         <v>0</v>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -6341,13 +6341,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
         <v>0</v>
       </c>
       <c r="E311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D312" t="n">
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -6417,10 +6417,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315" t="n">
         <v>0</v>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -6512,13 +6512,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320" t="n">
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -6531,13 +6531,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -6664,13 +6664,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D328" t="n">
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -6873,13 +6873,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
       </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -7044,13 +7044,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D348" t="n">
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -7082,13 +7082,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350" t="n">
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
@@ -7120,13 +7120,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -7177,13 +7177,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D355" t="n">
         <v>0</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -7595,13 +7595,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D377" t="n">
         <v>0</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -7652,13 +7652,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D380" t="n">
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -7766,13 +7766,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D386" t="n">
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D390" t="n">
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -7861,13 +7861,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D391" t="n">
         <v>0</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -7880,13 +7880,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D392" t="n">
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -7918,13 +7918,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D394" t="n">
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -7937,13 +7937,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" t="n">
         <v>0</v>
       </c>
       <c r="E395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -7975,13 +7975,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -8051,13 +8051,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D401" t="n">
         <v>0</v>
       </c>
       <c r="E401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -8089,10 +8089,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E403" t="n">
         <v>0</v>
@@ -8108,13 +8108,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D404" t="n">
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -8127,13 +8127,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D405" t="n">
         <v>0</v>
       </c>
       <c r="E405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -8203,13 +8203,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D409" t="n">
         <v>0</v>
       </c>
       <c r="E409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -8298,13 +8298,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414" t="n">
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -8317,13 +8317,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D415" t="n">
         <v>0</v>
       </c>
       <c r="E415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -8393,13 +8393,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D419" t="n">
         <v>0</v>
       </c>
       <c r="E419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -8450,13 +8450,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D422" t="n">
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -8488,13 +8488,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D424" t="n">
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -8507,13 +8507,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D425" t="n">
         <v>0</v>
       </c>
       <c r="E425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -8526,13 +8526,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D426" t="n">
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -8681,10 +8681,10 @@
         <v>1</v>
       </c>
       <c r="D434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -8697,13 +8697,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D435" t="n">
         <v>0</v>
       </c>
       <c r="E435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -8868,13 +8868,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D444" t="n">
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -8925,13 +8925,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D447" t="n">
         <v>0</v>
       </c>
       <c r="E447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -8963,13 +8963,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D449" t="n">
         <v>0</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -9001,13 +9001,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D451" t="n">
         <v>0</v>
       </c>
       <c r="E451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -9077,13 +9077,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D455" t="n">
         <v>0</v>
       </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -9229,13 +9229,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D463" t="n">
         <v>0</v>
       </c>
       <c r="E463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -9267,13 +9267,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D465" t="n">
         <v>0</v>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -9324,13 +9324,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D468" t="n">
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -9343,13 +9343,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D469" t="n">
         <v>0</v>
       </c>
       <c r="E469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -9362,13 +9362,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D470" t="n">
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -9400,13 +9400,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D472" t="n">
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -9419,13 +9419,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D473" t="n">
         <v>0</v>
       </c>
       <c r="E473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D475" t="n">
         <v>0</v>
       </c>
       <c r="E475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -9476,13 +9476,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D476" t="n">
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -9571,13 +9571,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D481" t="n">
         <v>0</v>
       </c>
       <c r="E481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -9590,13 +9590,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D482" t="n">
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -9609,13 +9609,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D483" t="n">
         <v>0</v>
       </c>
       <c r="E483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -9685,10 +9685,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E487" t="n">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E489" t="n">
         <v>0</v>
@@ -9818,13 +9818,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D494" t="n">
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -9970,13 +9970,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D502" t="n">
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -10008,10 +10008,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E504" t="n">
         <v>0</v>
@@ -10084,13 +10084,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D508" t="n">
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -10217,13 +10217,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D515" t="n">
         <v>0</v>
       </c>
       <c r="E515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -10236,13 +10236,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D516" t="n">
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -10255,13 +10255,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D517" t="n">
         <v>0</v>
       </c>
       <c r="E517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -10274,13 +10274,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D518" t="n">
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -10312,10 +10312,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E520" t="n">
         <v>0</v>
@@ -10350,13 +10350,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -10388,13 +10388,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D524" t="n">
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -10445,10 +10445,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E527" t="n">
         <v>0</v>
@@ -10483,13 +10483,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D529" t="n">
         <v>0</v>
       </c>
       <c r="E529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -10540,13 +10540,13 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -10578,13 +10578,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D534" t="n">
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -10616,13 +10616,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D536" t="n">
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -10692,13 +10692,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D540" t="n">
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -10749,13 +10749,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -10768,13 +10768,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D544" t="n">
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -10863,13 +10863,13 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D549" t="n">
         <v>0</v>
       </c>
       <c r="E549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -10882,13 +10882,13 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D550" t="n">
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -10920,13 +10920,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D552" t="n">
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -10958,13 +10958,13 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D554" t="n">
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -11072,13 +11072,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D560" t="n">
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -11170,10 +11170,10 @@
         <v>1</v>
       </c>
       <c r="D565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -11224,10 +11224,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E568" t="n">
         <v>0</v>
@@ -11281,13 +11281,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D571" t="n">
         <v>0</v>
       </c>
       <c r="E571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -11338,13 +11338,13 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D574" t="n">
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -11376,13 +11376,13 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D576" t="n">
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -11414,13 +11414,13 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D578" t="n">
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -11718,13 +11718,13 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D594" t="n">
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -11794,10 +11794,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E598" t="n">
         <v>0</v>
@@ -11870,10 +11870,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E602" t="n">
         <v>0</v>
@@ -11927,13 +11927,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D605" t="n">
         <v>0</v>
       </c>
       <c r="E605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -11984,10 +11984,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E608" t="n">
         <v>0</v>
@@ -12003,13 +12003,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D609" t="n">
         <v>0</v>
       </c>
       <c r="E609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -12098,13 +12098,13 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D614" t="n">
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -12212,10 +12212,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E620" t="n">
         <v>0</v>
@@ -12269,10 +12269,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E623" t="n">
         <v>0</v>
@@ -12288,13 +12288,13 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -12459,13 +12459,13 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D633" t="n">
         <v>0</v>
       </c>
       <c r="E633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -12576,10 +12576,10 @@
         <v>1</v>
       </c>
       <c r="D639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -12630,10 +12630,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E642" t="n">
         <v>0</v>
@@ -12687,10 +12687,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E645" t="n">
         <v>0</v>
@@ -12782,13 +12782,13 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D650" t="n">
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -12877,13 +12877,13 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D655" t="n">
         <v>0</v>
       </c>
       <c r="E655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
@@ -12934,13 +12934,13 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D658" t="n">
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -12991,10 +12991,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E661" t="n">
         <v>0</v>
@@ -13124,10 +13124,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E668" t="n">
         <v>0</v>
@@ -13162,10 +13162,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E670" t="n">
         <v>0</v>
@@ -13181,13 +13181,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D671" t="n">
         <v>0</v>
       </c>
       <c r="E671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -13219,13 +13219,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D673" t="n">
         <v>0</v>
       </c>
       <c r="E673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -13257,13 +13257,13 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D675" t="n">
         <v>0</v>
       </c>
       <c r="E675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -13390,13 +13390,13 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D682" t="n">
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -13466,13 +13466,13 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D686" t="n">
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -13488,10 +13488,10 @@
         <v>1</v>
       </c>
       <c r="D687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -13542,13 +13542,13 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D690" t="n">
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -13561,10 +13561,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E691" t="n">
         <v>0</v>
@@ -13637,10 +13637,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E695" t="n">
         <v>0</v>
@@ -13656,13 +13656,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D696" t="n">
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -13694,10 +13694,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E698" t="n">
         <v>0</v>
@@ -13922,13 +13922,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D710" t="n">
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -14188,13 +14188,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D724" t="n">
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -14207,13 +14207,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D725" t="n">
         <v>0</v>
       </c>
       <c r="E725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726">
@@ -14302,13 +14302,13 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D730" t="n">
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -14359,13 +14359,13 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D733" t="n">
         <v>0</v>
       </c>
       <c r="E733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -14378,13 +14378,13 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D734" t="n">
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -14454,13 +14454,13 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D738" t="n">
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -14473,10 +14473,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E739" t="n">
         <v>0</v>
@@ -14609,10 +14609,10 @@
         <v>1</v>
       </c>
       <c r="D746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747">
@@ -14663,13 +14663,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D749" t="n">
         <v>0</v>
       </c>
       <c r="E749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
@@ -15043,13 +15043,13 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D769" t="n">
         <v>0</v>
       </c>
       <c r="E769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -15084,10 +15084,10 @@
         <v>1</v>
       </c>
       <c r="D771" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -15100,10 +15100,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D772" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E772" t="n">
         <v>0</v>
@@ -15119,13 +15119,13 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D773" t="n">
         <v>0</v>
       </c>
       <c r="E773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774">
@@ -15176,13 +15176,13 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D776" t="n">
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777">
@@ -15499,13 +15499,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D793" t="n">
         <v>0</v>
       </c>
       <c r="E793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -15575,10 +15575,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E797" t="n">
         <v>0</v>
@@ -15613,13 +15613,13 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D799" t="n">
         <v>0</v>
       </c>
       <c r="E799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -15670,13 +15670,13 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D802" t="n">
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -15784,13 +15784,13 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -15974,10 +15974,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D818" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E818" t="n">
         <v>0</v>
@@ -16069,13 +16069,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D823" t="n">
         <v>0</v>
       </c>
       <c r="E823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824">
@@ -16107,13 +16107,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D825" t="n">
         <v>0</v>
       </c>
       <c r="E825" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -16145,13 +16145,13 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D827" t="n">
         <v>0</v>
       </c>
       <c r="E827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -16164,13 +16164,13 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D828" t="n">
         <v>0</v>
       </c>
       <c r="E828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -16221,13 +16221,13 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D831" t="n">
         <v>0</v>
       </c>
       <c r="E831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -16240,13 +16240,13 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D832" t="n">
         <v>0</v>
       </c>
       <c r="E832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -16297,13 +16297,13 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D835" t="n">
         <v>0</v>
       </c>
       <c r="E835" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -16373,13 +16373,13 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D839" t="n">
         <v>0</v>
       </c>
       <c r="E839" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -16487,13 +16487,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D845" t="n">
         <v>0</v>
       </c>
       <c r="E845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -16528,10 +16528,10 @@
         <v>1</v>
       </c>
       <c r="D847" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -16563,10 +16563,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E849" t="n">
         <v>0</v>
@@ -16601,10 +16601,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E851" t="n">
         <v>0</v>
@@ -16658,13 +16658,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D854" t="n">
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -16715,10 +16715,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E857" t="n">
         <v>0</v>
@@ -16829,13 +16829,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D863" t="n">
         <v>0</v>
       </c>
       <c r="E863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -16867,13 +16867,13 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D865" t="n">
         <v>0</v>
       </c>
       <c r="E865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -16924,13 +16924,13 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D868" t="n">
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869">
@@ -16962,13 +16962,13 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D870" t="n">
         <v>0</v>
       </c>
       <c r="E870" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -17133,13 +17133,13 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D879" t="n">
         <v>0</v>
       </c>
       <c r="E879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -17380,13 +17380,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D892" t="n">
         <v>0</v>
       </c>
       <c r="E892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893">
@@ -17418,10 +17418,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D894" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E894" t="n">
         <v>0</v>
@@ -17532,13 +17532,13 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D900" t="n">
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -17798,10 +17798,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D914" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E914" t="n">
         <v>0</v>
@@ -18254,10 +18254,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E938" t="n">
         <v>0</v>
@@ -18406,10 +18406,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D946" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E946" t="n">
         <v>0</v>
